--- a/Enviar.xlsx
+++ b/Enviar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateu\Desktop\pastas\PythonHashtag\WhatsPy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateu\Desktop\pastas\github\WhatsPy\WhatsPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E7202C-A728-4571-BB32-963E6A59B92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD133069-C1C0-4E87-9E04-3DF46B5AFC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{F81C85CE-3BCD-4B33-8C8B-0A39913C8743}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F81C85CE-3BCD-4B33-8C8B-0A39913C8743}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Pessoa</t>
   </si>
@@ -45,31 +45,13 @@
     <t>Mensagem</t>
   </si>
   <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>sdsd</t>
-  </si>
-  <si>
-    <t>+5521993613392</t>
-  </si>
-  <si>
-    <t>54616151651</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>masas</t>
-  </si>
-  <si>
-    <t>+552197670-0675</t>
-  </si>
-  <si>
-    <t>teste auto</t>
-  </si>
-  <si>
-    <t>nenem</t>
+    <t>nome da pessoa</t>
+  </si>
+  <si>
+    <t>número da pessoa</t>
+  </si>
+  <si>
+    <t>mensagem</t>
   </si>
 </sst>
 </file>
@@ -430,15 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53A7C94-CFFA-47EA-8C25-089A72CB0D85}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
@@ -459,32 +441,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
